--- a/Assets/06Table/ActionGame.xlsx
+++ b/Assets/06Table/ActionGame.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GameSW\Documents\GitHub\ActionGame0910\Assets\06Table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEA5440-3E34-4E69-9602-1535E47751CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="270" yWindow="3975" windowWidth="10905" windowHeight="7920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="ItemData" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="TipMess" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Language" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="MonsterData" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="LevelEXP" sheetId="5" r:id="rId8"/>
+    <sheet name="ItemData" sheetId="1" r:id="rId1"/>
+    <sheet name="TipMess" sheetId="2" r:id="rId2"/>
+    <sheet name="Language" sheetId="3" r:id="rId3"/>
+    <sheet name="MonsterData" sheetId="4" r:id="rId4"/>
+    <sheet name="LevelEXP" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
   <si>
     <t>uid</t>
   </si>
@@ -146,115 +155,694 @@
     <t>ItemIcon/itemicon_flask_blue</t>
   </si>
   <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>ENG</t>
+  </si>
+  <si>
+    <t>안녕하세요.</t>
+  </si>
+  <si>
+    <t>Hello.</t>
+  </si>
+  <si>
+    <t>monsterName</t>
+  </si>
+  <si>
+    <t>monsterType</t>
+  </si>
+  <si>
+    <t>moveSpeed</t>
+  </si>
+  <si>
+    <t>maxHP</t>
+  </si>
+  <si>
+    <t>dropID</t>
+  </si>
+  <si>
+    <t>dropRate</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>박스몬</t>
+  </si>
+  <si>
+    <t>초록몬</t>
+  </si>
+  <si>
+    <t>강한박스몬</t>
+  </si>
+  <si>
+    <t>강한초록몬</t>
+  </si>
+  <si>
+    <t>우르자이</t>
+  </si>
+  <si>
+    <t>curLevel</t>
+  </si>
+  <si>
+    <t>nextEXP</t>
+  </si>
+  <si>
     <t>sceneName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossScene</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseScene</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleScene</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위협적입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>처치에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성공하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전투맵의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>난이도가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상승합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NPC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물약을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>판매합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NPC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무기강화를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중간보스는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>몬스터보다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중간보스를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>처치하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무기를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>드랍합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>tipText</t>
-  </si>
-  <si>
-    <t>BossScene</t>
-  </si>
-  <si>
-    <t>보스 공격은 매우 위협적입니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BossScene </t>
-  </si>
-  <si>
-    <t>보스 처치에 성공하면 전투맵의 난이도가 상승합니다.</t>
-  </si>
-  <si>
-    <t>BaseScene</t>
-  </si>
-  <si>
-    <t>3시 NPC는 물약을 판매합니다.</t>
-  </si>
-  <si>
-    <t>9시 NPC는 무기강화를 할수 있습니다.</t>
-  </si>
-  <si>
-    <t>BattleScene</t>
-  </si>
-  <si>
-    <t>중간보스를 처치하면 무기를 드랍합니다.</t>
-  </si>
-  <si>
-    <t>중간보스는 일반 몬스터보다 강합니다.</t>
-  </si>
-  <si>
-    <t>KOR</t>
-  </si>
-  <si>
-    <t>ENG</t>
-  </si>
-  <si>
-    <t>안녕하세요.</t>
-  </si>
-  <si>
-    <t>Hello.</t>
-  </si>
-  <si>
-    <t>monsterName</t>
-  </si>
-  <si>
-    <t>monsterType</t>
-  </si>
-  <si>
-    <t>moveSpeed</t>
-  </si>
-  <si>
-    <t>maxHP</t>
-  </si>
-  <si>
-    <t>dropID</t>
-  </si>
-  <si>
-    <t>dropRate</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>박스몬</t>
-  </si>
-  <si>
-    <t>초록몬</t>
-  </si>
-  <si>
-    <t>강한박스몬</t>
-  </si>
-  <si>
-    <t>강한초록몬</t>
-  </si>
-  <si>
-    <t>우르자이</t>
-  </si>
-  <si>
-    <t>curLevel</t>
-  </si>
-  <si>
-    <t>nextEXP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -262,7 +850,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -272,51 +860,42 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -506,24 +1085,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="16.5"/>
-    <col customWidth="1" min="3" max="3" width="46.25"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,9 +1131,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>1001.0</v>
+        <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -560,24 +1142,24 @@
         <v>9</v>
       </c>
       <c r="D2" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>1002.0</v>
+        <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -586,24 +1168,24 @@
         <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>1003.0</v>
+        <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -612,24 +1194,24 @@
         <v>9</v>
       </c>
       <c r="D4" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>1004.0</v>
+        <v>1004</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -638,24 +1220,24 @@
         <v>9</v>
       </c>
       <c r="D5" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>1005.0</v>
+        <v>1005</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -664,24 +1246,24 @@
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>2001.0</v>
+        <v>2001</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -690,24 +1272,24 @@
         <v>15</v>
       </c>
       <c r="D7" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>2002.0</v>
+        <v>2002</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
@@ -716,24 +1298,24 @@
         <v>15</v>
       </c>
       <c r="D8" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>2003.0</v>
+        <v>2003</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
@@ -742,24 +1324,24 @@
         <v>15</v>
       </c>
       <c r="D9" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>2004.0</v>
+        <v>2004</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
@@ -768,24 +1350,24 @@
         <v>15</v>
       </c>
       <c r="D10" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>2005.0</v>
+        <v>2005</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
@@ -794,24 +1376,24 @@
         <v>15</v>
       </c>
       <c r="D11" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>3001.0</v>
+        <v>3001</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
@@ -820,24 +1402,24 @@
         <v>21</v>
       </c>
       <c r="D12" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>4001.0</v>
+        <v>4001</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
@@ -846,24 +1428,24 @@
         <v>23</v>
       </c>
       <c r="D13" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="F13" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>5001.0</v>
+        <v>5001</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>24</v>
@@ -872,24 +1454,24 @@
         <v>25</v>
       </c>
       <c r="D14" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>1001006.0</v>
+        <v>1001006</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>26</v>
@@ -898,24 +1480,24 @@
         <v>27</v>
       </c>
       <c r="D15" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="E15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>1001007.0</v>
+        <v>1001007</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>28</v>
@@ -924,24 +1506,24 @@
         <v>29</v>
       </c>
       <c r="D16" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="E16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>1001008.0</v>
+        <v>1001008</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>30</v>
@@ -950,24 +1532,24 @@
         <v>31</v>
       </c>
       <c r="D17" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="E17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>1001009.0</v>
+        <v>1001009</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>32</v>
@@ -976,24 +1558,24 @@
         <v>21</v>
       </c>
       <c r="D18" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>1001010.0</v>
+        <v>1001010</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>33</v>
@@ -1002,24 +1584,24 @@
         <v>34</v>
       </c>
       <c r="D19" s="1">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="E19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>2001001.0</v>
+        <v>2001001</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>35</v>
@@ -1028,24 +1610,24 @@
         <v>36</v>
       </c>
       <c r="D20" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>2001002.0</v>
+        <v>2001002</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>37</v>
@@ -1054,24 +1636,24 @@
         <v>38</v>
       </c>
       <c r="D21" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="E21" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="F21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <v>2001003.0</v>
+        <v>2001003</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>39</v>
@@ -1080,24 +1662,24 @@
         <v>40</v>
       </c>
       <c r="D22" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="E22" s="1">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="F22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
-        <v>2001004.0</v>
+        <v>2001004</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>41</v>
@@ -1106,622 +1688,634 @@
         <v>42</v>
       </c>
       <c r="D23" s="1">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="E23" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="F23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="15.38"/>
-    <col customWidth="1" min="3" max="3" width="64.13"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2">
+      <c r="B1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1">
-        <v>10001.0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>10001</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="13.5">
       <c r="A3" s="1">
-        <v>10002.0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>10002</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="13.5">
       <c r="A4" s="1">
-        <v>20001.0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>20001</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13.5">
       <c r="A5" s="1">
-        <v>20002.0</v>
+        <v>20002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>63</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="13.5">
       <c r="A6" s="1">
-        <v>30001.0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>30001</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="13.5">
       <c r="A7" s="1">
-        <v>30002.0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>30002</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>101001.0</v>
+        <v>101001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1">
-        <v>1001006.0</v>
+        <v>1001006</v>
       </c>
       <c r="H2" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>101002.0</v>
+        <v>101002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1">
-        <v>1001007.0</v>
+        <v>1001007</v>
       </c>
       <c r="H3" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>102001.0</v>
+        <v>102001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1">
-        <v>1001006.0</v>
+        <v>1001006</v>
       </c>
       <c r="H4" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>102002.0</v>
+        <v>102002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1">
-        <v>1001007.0</v>
+        <v>1001007</v>
       </c>
       <c r="H5" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="I5" s="1">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>501001.0</v>
+        <v>501001</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1">
+        <v>500</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1001</v>
+      </c>
+      <c r="H6" s="1">
         <v>70</v>
       </c>
-      <c r="C6" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1001.0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>70.0</v>
-      </c>
       <c r="I6" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>57.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>92.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>135.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>372.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>560.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>840.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>1242.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1242.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1242.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1242.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1242.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1490.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1788.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>2145.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>2574.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>3088.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>3705.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>3705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>4446.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>5335.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>5335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>6402.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>6402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>7682.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>7682</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>9218.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>9218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>11061.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>11061</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>13273.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>13273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>15927.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>15927</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>19112.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>19112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>19112.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>19112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>19112.0</v>
+        <v>19112</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>